--- a/simulation_data/two_step_algorithm/2s_error_level_11_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_11_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>95.47768746792657</v>
+        <v>93.62762392049852</v>
       </c>
       <c r="D2" t="n">
-        <v>14.93957772695767</v>
+        <v>11.42099897955485</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.51585090973902</v>
+        <v>93.12060388052376</v>
       </c>
       <c r="D3" t="n">
-        <v>12.89358246414779</v>
+        <v>13.22703547389853</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>93.75800350674572</v>
+        <v>90.49240399344471</v>
       </c>
       <c r="D4" t="n">
-        <v>13.9851151358649</v>
+        <v>14.90899055632247</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.54703074406689</v>
+        <v>91.0069007055144</v>
       </c>
       <c r="D5" t="n">
-        <v>13.95429141305632</v>
+        <v>13.13644987795068</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>91.18059890648048</v>
+        <v>88.64717525209424</v>
       </c>
       <c r="D6" t="n">
-        <v>16.16322721750462</v>
+        <v>12.56571776548332</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>89.74535305004723</v>
+        <v>88.6638915073344</v>
       </c>
       <c r="D7" t="n">
-        <v>15.07427689360007</v>
+        <v>12.77450041179979</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.85507064388167</v>
+        <v>87.02269018600725</v>
       </c>
       <c r="D8" t="n">
-        <v>15.19410410662617</v>
+        <v>14.03574481645139</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>87.72237256544224</v>
+        <v>87.59679043563045</v>
       </c>
       <c r="D9" t="n">
-        <v>14.34083122663307</v>
+        <v>13.39868527572197</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.59962627470117</v>
+        <v>85.94807663307256</v>
       </c>
       <c r="D10" t="n">
-        <v>16.65726349079165</v>
+        <v>12.28326343738447</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.00624485704024</v>
+        <v>85.17208807917383</v>
       </c>
       <c r="D11" t="n">
-        <v>14.36144033483722</v>
+        <v>14.44848549175573</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.79642125692079</v>
+        <v>83.34335897169942</v>
       </c>
       <c r="D12" t="n">
-        <v>13.73212259668893</v>
+        <v>12.49897423043688</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.62715345226113</v>
+        <v>82.47511572847692</v>
       </c>
       <c r="D13" t="n">
-        <v>15.08611317735543</v>
+        <v>12.87387541805874</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.15078793730883</v>
+        <v>80.65869141078605</v>
       </c>
       <c r="D14" t="n">
-        <v>14.98018663192755</v>
+        <v>12.40460227194834</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>80.3560537804838</v>
+        <v>79.67651022033837</v>
       </c>
       <c r="D15" t="n">
-        <v>12.75512714110988</v>
+        <v>12.27596301576699</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>80.29772337043714</v>
+        <v>77.53972583457923</v>
       </c>
       <c r="D16" t="n">
-        <v>15.28945394524319</v>
+        <v>13.92215071959548</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.51384656518739</v>
+        <v>79.31153163318112</v>
       </c>
       <c r="D17" t="n">
-        <v>15.43000666827267</v>
+        <v>14.49462244426297</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.76494693401321</v>
+        <v>74.12689297550467</v>
       </c>
       <c r="D18" t="n">
-        <v>14.49133216652636</v>
+        <v>14.25735066102568</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>76.55381703898558</v>
+        <v>75.08984209834053</v>
       </c>
       <c r="D19" t="n">
-        <v>15.28516763175677</v>
+        <v>11.10155845994091</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.85496664201176</v>
+        <v>74.3374244558867</v>
       </c>
       <c r="D20" t="n">
-        <v>13.63342172314382</v>
+        <v>13.1594353173495</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>74.14526957514579</v>
+        <v>73.33106505908225</v>
       </c>
       <c r="D21" t="n">
-        <v>13.36256723349746</v>
+        <v>14.48581270068279</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.76039250208015</v>
+        <v>71.10072239490378</v>
       </c>
       <c r="D22" t="n">
-        <v>13.7315631532035</v>
+        <v>13.73562898957582</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>72.50558537279822</v>
+        <v>70.17867327163488</v>
       </c>
       <c r="D23" t="n">
-        <v>14.11978016661352</v>
+        <v>13.16917454838083</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.45479202598881</v>
+        <v>69.09035865666506</v>
       </c>
       <c r="D24" t="n">
-        <v>13.80120935893291</v>
+        <v>13.80271571723925</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.12368447728862</v>
+        <v>68.44571488500421</v>
       </c>
       <c r="D25" t="n">
-        <v>13.15077525015906</v>
+        <v>11.22712898746678</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.24764305525379</v>
+        <v>65.68489655573674</v>
       </c>
       <c r="D26" t="n">
-        <v>14.75483368475221</v>
+        <v>12.26560167601774</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.51776527448456</v>
+        <v>66.54300653666198</v>
       </c>
       <c r="D27" t="n">
-        <v>13.79363403048521</v>
+        <v>12.90969633740254</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.89752557493458</v>
+        <v>62.60204493200524</v>
       </c>
       <c r="D28" t="n">
-        <v>13.22813659647653</v>
+        <v>13.02276116952356</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>66.30866788713487</v>
+        <v>60.73312832205426</v>
       </c>
       <c r="D29" t="n">
-        <v>13.64722209205952</v>
+        <v>12.96523899224733</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.01464396929295</v>
+        <v>59.73645314817791</v>
       </c>
       <c r="D30" t="n">
-        <v>14.25126560764454</v>
+        <v>14.92169654734459</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.57017201642306</v>
+        <v>61.14901349576726</v>
       </c>
       <c r="D31" t="n">
-        <v>13.45839505429356</v>
+        <v>13.08721028163469</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.33476051614145</v>
+        <v>62.86905498430773</v>
       </c>
       <c r="D32" t="n">
-        <v>15.07267725408845</v>
+        <v>13.10004339521199</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.30056317015506</v>
+        <v>59.35483682753485</v>
       </c>
       <c r="D33" t="n">
-        <v>15.29187976317091</v>
+        <v>13.64234495456736</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.82490101825339</v>
+        <v>59.91714935376591</v>
       </c>
       <c r="D34" t="n">
-        <v>14.59092980272569</v>
+        <v>12.99585920677967</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.24327505748695</v>
+        <v>59.41263919197816</v>
       </c>
       <c r="D35" t="n">
-        <v>12.00619921802482</v>
+        <v>13.13099199807373</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>59.11557943501352</v>
+        <v>57.47671109771249</v>
       </c>
       <c r="D36" t="n">
-        <v>13.3891754842003</v>
+        <v>12.48247515120453</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.84267684803795</v>
+        <v>55.09380582160244</v>
       </c>
       <c r="D37" t="n">
-        <v>13.84792674425259</v>
+        <v>13.35854496499161</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.93996884154516</v>
+        <v>53.08898998217549</v>
       </c>
       <c r="D38" t="n">
-        <v>14.7539101257972</v>
+        <v>13.04124799540043</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.11775878448021</v>
+        <v>51.69576761990882</v>
       </c>
       <c r="D39" t="n">
-        <v>12.19538867373076</v>
+        <v>13.15274919019964</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.47958846359418</v>
+        <v>54.06869211485715</v>
       </c>
       <c r="D40" t="n">
-        <v>15.85974512081008</v>
+        <v>12.68013500837482</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.56671061018058</v>
+        <v>51.79950939529974</v>
       </c>
       <c r="D41" t="n">
-        <v>13.18023624317887</v>
+        <v>13.47545594172227</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.33639284529679</v>
+        <v>50.50940696196452</v>
       </c>
       <c r="D42" t="n">
-        <v>13.41770610089086</v>
+        <v>14.41662445132899</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.19319220668061</v>
+        <v>51.83359343942437</v>
       </c>
       <c r="D43" t="n">
-        <v>13.49087145102758</v>
+        <v>11.63644185947406</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.89694019393507</v>
+        <v>48.94978977770601</v>
       </c>
       <c r="D44" t="n">
-        <v>13.62480846332107</v>
+        <v>13.42262351167695</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>49.67129288457549</v>
+        <v>49.2447129933139</v>
       </c>
       <c r="D45" t="n">
-        <v>14.0937905401832</v>
+        <v>15.07078249224534</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.27000991412169</v>
+        <v>45.22916214480428</v>
       </c>
       <c r="D46" t="n">
-        <v>15.04088000969979</v>
+        <v>13.87012022712659</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>48.58345370068123</v>
+        <v>45.051064762761</v>
       </c>
       <c r="D47" t="n">
-        <v>14.95564885937947</v>
+        <v>11.62912594435195</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.77189512868336</v>
+        <v>41.49154084629402</v>
       </c>
       <c r="D48" t="n">
-        <v>14.38522939605237</v>
+        <v>13.81549705747276</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.37813625226931</v>
+        <v>42.98974636000688</v>
       </c>
       <c r="D49" t="n">
-        <v>14.36073293163572</v>
+        <v>13.43879414159951</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.97774115243291</v>
+        <v>43.39040203140172</v>
       </c>
       <c r="D50" t="n">
-        <v>11.44567073859763</v>
+        <v>12.8020117608706</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.66274209508568</v>
+        <v>43.00485285847029</v>
       </c>
       <c r="D51" t="n">
-        <v>13.82969148207992</v>
+        <v>12.36463112073353</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.37029057993892</v>
+        <v>40.68793480175302</v>
       </c>
       <c r="D52" t="n">
-        <v>12.66347677950568</v>
+        <v>13.70669102774017</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.45312003316852</v>
+        <v>38.06653463250995</v>
       </c>
       <c r="D53" t="n">
-        <v>13.94059598538986</v>
+        <v>13.59692011345769</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.46188173328289</v>
+        <v>37.37928978055147</v>
       </c>
       <c r="D54" t="n">
-        <v>14.12611512186064</v>
+        <v>14.40027411205793</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.76904304961505</v>
+        <v>37.60901721673977</v>
       </c>
       <c r="D55" t="n">
-        <v>13.71056723860562</v>
+        <v>15.11254328035703</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.27909089690746</v>
+        <v>36.77835086396331</v>
       </c>
       <c r="D56" t="n">
-        <v>13.05311767953313</v>
+        <v>14.31286785607723</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.46739938850519</v>
+        <v>34.54970597765814</v>
       </c>
       <c r="D57" t="n">
-        <v>12.75079314881952</v>
+        <v>13.07656917410434</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.46594736060476</v>
+        <v>35.31736381587686</v>
       </c>
       <c r="D58" t="n">
-        <v>13.41360779021558</v>
+        <v>13.2983789346347</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.98983382773557</v>
+        <v>32.21279557324416</v>
       </c>
       <c r="D59" t="n">
-        <v>14.44024284312627</v>
+        <v>14.38288716363803</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.72051892662959</v>
+        <v>33.36277882382493</v>
       </c>
       <c r="D60" t="n">
-        <v>13.38195839875115</v>
+        <v>14.3730182254077</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.94691716048138</v>
+        <v>31.49331188739674</v>
       </c>
       <c r="D61" t="n">
-        <v>13.44901541910496</v>
+        <v>13.42638058498532</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.26032840021258</v>
+        <v>30.69358042746385</v>
       </c>
       <c r="D62" t="n">
-        <v>12.92416766840436</v>
+        <v>13.25021795186516</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>31.54692743785345</v>
+        <v>27.59403010938422</v>
       </c>
       <c r="D63" t="n">
-        <v>11.90921911793182</v>
+        <v>12.25453911846528</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.21310473774932</v>
+        <v>28.44455264194272</v>
       </c>
       <c r="D64" t="n">
-        <v>12.3190255469927</v>
+        <v>12.7655458507019</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.21822213071422</v>
+        <v>26.68443480541367</v>
       </c>
       <c r="D65" t="n">
-        <v>14.21919916877838</v>
+        <v>12.1052019932008</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.86581685551257</v>
+        <v>23.88027470862911</v>
       </c>
       <c r="D66" t="n">
-        <v>13.38649808873433</v>
+        <v>13.19800174530181</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.45864152535866</v>
+        <v>24.09899902799318</v>
       </c>
       <c r="D67" t="n">
-        <v>13.80912525444304</v>
+        <v>12.32028126812831</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.53148488233874</v>
+        <v>23.44674983474372</v>
       </c>
       <c r="D68" t="n">
-        <v>12.67228161054755</v>
+        <v>13.79679871077126</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>20.56503720256417</v>
+        <v>20.68871298591513</v>
       </c>
       <c r="D69" t="n">
-        <v>13.05013817931267</v>
+        <v>12.66357914034119</v>
       </c>
     </row>
   </sheetData>
